--- a/TestandoXbimToolKit/ExcelWorkbook1/ExcelWorkbook1/bin/Debug/ExcelWorkbook1.xlsx
+++ b/TestandoXbimToolKit/ExcelWorkbook1/ExcelWorkbook1/bin/Debug/ExcelWorkbook1.xlsx
@@ -398,7 +398,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9072150-0538-4CF3-A32B-C092722BD6CC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30607CB3-BAAF-4A4C-AD2D-695992D96FA2}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>